--- a/ut3/PDs/UT3-TA1/UT3-TA1.xlsx
+++ b/ut3/PDs/UT3-TA1/UT3-TA1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Machine-Learning-Portfolio\ut3\PDs\UT03-TA1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Machine-Learning-Portfolio\ut3\PDs\UT3-TA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2879F4C-CBE1-4E3D-B0AB-8242D98220B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA28729F-EC06-440E-8266-BE4796C6DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17028" windowHeight="9564" activeTab="1" xr2:uid="{1FF1BBC3-D289-4B94-BAFE-9A492678760C}"/>
+    <workbookView xWindow="-2520" yWindow="2520" windowWidth="21600" windowHeight="11772" activeTab="1" xr2:uid="{1FF1BBC3-D289-4B94-BAFE-9A492678760C}"/>
   </bookViews>
   <sheets>
     <sheet name="ej1" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ej1'!$B$21:$B$101</c:f>
+              <c:f>'ej1'!$B$21:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -544,10 +544,10 @@
                 <c:pt idx="77">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.9</c:v>
+                </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -555,10 +555,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ej1'!$C$21:$C$101</c:f>
+              <c:f>'ej1'!$C$21:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1.5695238095238093</c:v>
                 </c:pt>
@@ -793,10 +793,10 @@
                 <c:pt idx="77">
                   <c:v>4.2095238095238097</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.175238095238095</c:v>
+                </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.175238095238095</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>4.2095238095238097</c:v>
                 </c:pt>
               </c:numCache>
@@ -2814,10 +2814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D6A4B9-397A-40DD-ADAD-6C226ED341BF}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3760,21 +3760,21 @@
         <v>4.2095238095238097</v>
       </c>
     </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="C99">
+        <f>$B$13+B99*$B$14</f>
+        <v>4.175238095238095</v>
+      </c>
+    </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <f>$B$13+B100*$B$14</f>
-        <v>4.175238095238095</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="1">
-        <v>8</v>
-      </c>
-      <c r="C101">
-        <f>$B$13+B101*$B$14</f>
         <v>4.2095238095238097</v>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3848,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <f>$C$25+$D$25*A2</f>
+        <f t="shared" ref="H2:H7" si="0">$C$25+$D$25*A2</f>
         <v>0.72699293604227921</v>
       </c>
       <c r="I2" cm="1">
@@ -3876,14 +3876,14 @@
         <v>0.04</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F25" si="0">E3-B3</f>
+        <f t="shared" ref="F3:F25" si="1">E3-B3</f>
         <v>-1.96</v>
       </c>
       <c r="G3" s="1">
         <v>0.01</v>
       </c>
       <c r="H3">
-        <f>$C$25+$D$25*A3</f>
+        <f t="shared" si="0"/>
         <v>1.7883604467349206</v>
       </c>
     </row>
@@ -3899,11 +3899,11 @@
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D26" si="1">D3-$G$3*F3*A3</f>
+        <f t="shared" ref="D4:D26" si="2">D3-$G$3*F3*A3</f>
         <v>6.88E-2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E25" si="2">C4+A4*D4</f>
+        <f t="shared" ref="E4:E25" si="3">C4+A4*D4</f>
         <v>0.16720000000000002</v>
       </c>
       <c r="F4" s="1">
@@ -3911,7 +3911,7 @@
         <v>-2.8327999999999998</v>
       </c>
       <c r="H4">
-        <f>$C$25+$D$25*A4</f>
+        <f t="shared" si="0"/>
         <v>1.2576766913885999</v>
       </c>
     </row>
@@ -3923,15 +3923,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C26" si="3">C4-$G$3*F4</f>
+        <f t="shared" ref="C5:C26" si="4">C4-$G$3*F4</f>
         <v>5.7928E-2</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12545600000000001</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55975200000000003</v>
       </c>
       <c r="F5" s="1">
@@ -3939,7 +3939,7 @@
         <v>-2.440248</v>
       </c>
       <c r="H5">
-        <f>$C$25+$D$25*A5</f>
+        <f t="shared" si="0"/>
         <v>2.3190442020812414</v>
       </c>
     </row>
@@ -3951,23 +3951,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2330479999999998E-2</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22306592000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4207260000000002</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>0.22306592000000003</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4207260000000002</v>
-      </c>
-      <c r="F6" s="1">
+        <v>-0.57927399999999984</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>-0.57927399999999984</v>
-      </c>
-      <c r="H6">
-        <f>$C$25+$D$25*A6</f>
         <v>3.3804117127738826</v>
       </c>
     </row>
@@ -3979,23 +3979,23 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8123220000000002E-2</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25782236000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3772350200000001</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0.25782236000000003</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3772350200000001</v>
-      </c>
-      <c r="F7" s="1">
+        <v>-3.6227649799999999</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>-3.6227649799999999</v>
-      </c>
-      <c r="H7">
-        <f>$C$25+$D$25*A7</f>
         <v>2.8497279574275622</v>
       </c>
     </row>
@@ -4015,11 +4015,11 @@
         <v>0.438960609</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56331147879999999</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.43668852120000001</v>
       </c>
     </row>
@@ -4031,19 +4031,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.128717755012</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44332749421200002</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4587002376480001</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>0.44332749421200002</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4587002376480001</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
         <v>-0.54129976235199995</v>
       </c>
     </row>
@@ -4055,19 +4055,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13413075263551999</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45956648708256004</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.05326372680064</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>0.45956648708256004</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>1.05326372680064</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
         <v>-1.94673627319936</v>
       </c>
     </row>
@@ -4079,19 +4079,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15359811536751358</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49850121254654722</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1476029655537023</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>0.49850121254654722</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1476029655537023</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
         <v>-0.85239703444629766</v>
       </c>
     </row>
@@ -4103,19 +4103,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16212208571197656</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53259709392439913</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3577046492583715</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0.53259709392439913</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>3.3577046492583715</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
         <v>1.3577046492583715</v>
       </c>
     </row>
@@ -4127,19 +4127,19 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14854503921939285</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45113481496889685</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4042191140638773</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0.45113481496889685</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4042191140638773</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
         <v>-2.5957808859361227</v>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
         <v>0.75542670734445705</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.24457329265554295</v>
       </c>
     </row>
@@ -4175,19 +4175,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1769485810053095</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58336959219225848</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9270573575820849</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>0.58336959219225848</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9270573575820849</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
         <v>-7.2942642417915149E-2</v>
       </c>
     </row>
@@ -4199,19 +4199,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17767800742948864</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58555787146479599</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3487937503590806</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>0.58555787146479599</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3487937503590806</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
         <v>-1.6512062496409194</v>
       </c>
     </row>
@@ -4223,19 +4223,19 @@
         <v>3</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19419006992589782</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61858199645761436</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6685180557563553</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>0.61858199645761436</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6685180557563553</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
         <v>-0.33148194424364474</v>
       </c>
     </row>
@@ -4247,19 +4247,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19750488936833427</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63184127422736014</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9885525347324955</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>0.63184127422736014</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>3.9885525347324955</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
         <v>1.9885525347324955</v>
       </c>
     </row>
@@ -4271,19 +4271,19 @@
         <v>5</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17761936402100931</v>
       </c>
       <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51252812214341037</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7402599747380614</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>0.51252812214341037</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7402599747380614</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
         <v>-2.2597400252619386</v>
       </c>
     </row>
@@ -4303,11 +4303,11 @@
         <v>0.62551512340650728</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82573188768013595</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17426811231986405</v>
       </c>
     </row>
@@ -4319,19 +4319,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20195944539682734</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.62725780452970592</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.083732858985945</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
-        <v>0.62725780452970592</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>2.083732858985945</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
         <v>8.3732858985944958E-2</v>
       </c>
     </row>
@@ -4343,19 +4343,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2011221168069679</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.62474581876012758</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4506137543272231</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>0.62474581876012758</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4506137543272231</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
         <v>-1.5493862456727769</v>
       </c>
     </row>
@@ -4367,19 +4367,19 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21661597926369566</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65573354367358316</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8395501539580281</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>0.65573354367358316</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="2"/>
-        <v>2.8395501539580281</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
         <v>-0.16044984604197188</v>
       </c>
     </row>
@@ -4391,19 +4391,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21822047772411537</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66215153751526201</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1911297028156875</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>0.66215153751526201</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="2"/>
-        <v>4.1911297028156875</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
         <v>2.1911297028156875</v>
       </c>
     </row>
@@ -4415,29 +4415,29 @@
         <v>5</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19630918069595849</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53068375534632073</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8497279574275622</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>0.53068375534632073</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="2"/>
-        <v>2.8497279574275622</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
         <v>-2.1502720425724378</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21781190112168286</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63819735747494266</v>
       </c>
     </row>
